--- a/01_Requirements/LedgerTypes/05_Fixed Assets individuals.xlsx
+++ b/01_Requirements/LedgerTypes/05_Fixed Assets individuals.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t xml:space="preserve">This screen is same for all Individuals/Firms/ HUF's/ LLP </t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>This information is to assess the accurate Gross profit calculation by considering on the Operating Fixed Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is TCS is applicable </t>
+  </si>
+  <si>
+    <t>Applicable section of TCS</t>
+  </si>
+  <si>
+    <t>Drop Down list of TDS Rates</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -231,11 +240,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,6 +341,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:K24"/>
+  <dimension ref="D2:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -755,90 +791,123 @@
     </row>
     <row r="15" spans="4:11" ht="24.95" customHeight="1">
       <c r="D15" s="2"/>
+      <c r="E15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="4:11" ht="24.95" customHeight="1">
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="29"/>
       <c r="I16" s="13"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="4:11" ht="24.95" customHeight="1">
+    <row r="17" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D17" s="2"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="13"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="4:11" ht="24.95" customHeight="1">
-      <c r="D18" s="2"/>
+    <row r="18" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="13"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="4:11" ht="24.95" customHeight="1">
       <c r="D19" s="2"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="25" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="23" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D24:K24"/>
+  <mergeCells count="10">
+    <mergeCell ref="D25:K25"/>
     <mergeCell ref="D4:K4"/>
-    <mergeCell ref="I5:K20"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="I5:K21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="D23:K23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/01_Requirements/LedgerTypes/05_Fixed Assets individuals.xlsx
+++ b/01_Requirements/LedgerTypes/05_Fixed Assets individuals.xlsx
@@ -279,6 +279,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -297,6 +303,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -315,13 +330,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,18 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +671,7 @@
   <dimension ref="D2:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -688,66 +688,66 @@
     </row>
     <row r="3" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="4" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="4:11" ht="24.95" customHeight="1">
       <c r="D5" s="2"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="4:11" ht="24.95" customHeight="1">
       <c r="D6" s="2"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="4:11" ht="24.95" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D8" s="2"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D10" s="2"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D11" s="2" t="s">
@@ -759,21 +759,21 @@
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="4:11" ht="24.95" customHeight="1">
       <c r="D12" s="2"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D13" s="2"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D14" s="4" t="s">
@@ -785,94 +785,94 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="4:11" ht="24.95" customHeight="1">
       <c r="D15" s="2"/>
-      <c r="E15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="4:11" ht="24.95" customHeight="1">
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D17" s="2"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="4:11" ht="24.95" customHeight="1">
       <c r="D19" s="2"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D20" s="2"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="23" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
       <c r="D24" s="6"/>
@@ -885,16 +885,16 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
